--- a/down_send/processed_items.xlsx
+++ b/down_send/processed_items.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,440 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iphone 7 dorado  </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!bvg3kaaK!WIqLdefaISwiBE0Qd2DRRTsrEWyyFdFdEtK8qZpHy_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iphone 7 dorado  </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!anxzkCqL!S6Eqddc2d5Yuducx_-uLNLt8QK-b6SuwuXXBsGG0QhU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!PzphRAgQ!h6-10Cazj4ISid_4R_FtKx6iRih3ovrRi4uBmaEWJoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!auxVTYpJ!EVsTnVqs1fdf8AlvW4s7WdLsIEmMmFjEoVwINtoJICo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!Pm4RgY7Q!tdbRLfr-GH5_IdmEDYqzvBWPTdujDMRvIR2mm2XMl4o</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!6ypDQIZR!ZyLLDl-uiku6cl-aAYLgux-Kt5tEZ8CkJWRR3Myhb34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!Cjo3RAaY!WunImI52VuBQ59J0QfRXpQ-z8SXfDP8D50sQ0exCDEc</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!SywVEQaD!uMaVDFnRGEywzOoT23bSAXXsCQLCwy3YsHO2ME-XJlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11i negro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!2ugRHCyR!pZyqC6ZD8kwlr9Ys5loO0_yX1PS9l1dNnLMfz2_WCHM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!yvgjyCYJ!2NyFiD1YRxG7b5QNd4VbnXYC_5qMaIAT1ZcD9Nf3mVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!6yolASZT!jLXdymIbAqW3sUCgdo925vNfhX1VbUNyXHkMC5wuZ0E</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!fjplUSBT!6oZQArsdgsK_GaKgYfTCdGVZq4Xwn3J88aJoy5mkyZ0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!7i5xhYzT!6iX3RljqN7lQwV58PuLfwGUeu45yxPmcNrcSGtCqiF8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!G7wDzIhT!aUE1fO6FJdrpjLu2BnbzUE2hiyWiyevE3etrGNRzwy0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!u24lCQ4B!FFrJMEeVHIoqa--owLhoq5alARV7nsw4wqBjCxiz60k</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite negro</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!rzpRTSCD!H2c1S7s3poA9z3A3QF6NDMupIWfGZAibKbNz1lyOtTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!T2oFQIrA!ZP2msirVeb6qbdkDzTXTFP0n23CPyIU7ms6VjpBHwUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!L35x3YJK!DNSwsv5ctxQGuybeN29R2OdaxibaRQHGFnb2df-IzvA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!qn5znSxB!caY_zMlxQNHOT91DYTV_BJS_IQaViJHf5GyL4-6WEI0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!a74DlQCA!FDVqyY3GO85ifRDhwyw26AMX5S1isrs3Np51-XT_EEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!jz4jVAKT!FXJfJ1F3-qsPsJrpoM2vju-d4NOJBevOwCnf630pRcM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>xiaomi mi 11 lite azul</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!ij5jkY5J!dJVsIpiYzD32QCa4NDWwc6HD5zbFn9-p7o-mLQKxq-Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!v34VlQAK!UmAGccyvgP-I6TyCldnHEZcHP6XNTCqdbr811LUzuFg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!a3wXUAJK!lqePExKDPEGRW53pOfZVzJoE4XVSRLF62i1Cii_eRBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!nnpDUQjK!ZUGEZyc43pdH22X262Eoy7XUTP00R2gKTJ7it-4cc4U</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!yigVRCRB!cQS_2_-If7F3yXrEmToY5pR9GPcn9_BnBvo3Pijj8dg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!3r51EKKQ!meJeeSL37Os_I6DkOeNquh53YJA0sI4pWR3TWhBmW0c</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!fvgBjY5L!hzFrly0C1aO00BztdeKj1IUie63U6rmZxFXef5Eo5kk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!S2gHxYDL!qNLF1FD5J_L5bo3njw0uu1ACTTLGeIxDGAlOaBI9C04</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!3yhHjYAb!32-UmPcUEqSX2v2vUfg2uyAwq7O0ul-6f3E0Ooph11M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!PqRQTZ7K!5e-ObKylFuc8JcDcKvEWhwbq0DzkBkjC0ifWXqpVnPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!u3YWDDCB!3ebT-5YELxtIqouMgapb63Z1yWQqQwudlb6k_R2MmJo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!LyBmyZAC!ZHi2dfcTU_jNJxElK_8Y6_Mv2rHu4AGWhXMuGTU1rkw</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>xiaomi poco f3 negro</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!CjIUXbrR!qoOpub_nf44If5-wIC8z3I6qv9gGqeM9N8pPRZ3PZS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iphone se 2016 rosa  </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://mega.co.nz/#!XyhmHaZa!sXezjKkVMa0lgpdeZsRMRJQ5E6b5VpUB23ctQjZgeng</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>